--- a/ZSB_Mobile/TestSuite/execution.xlsx
+++ b/ZSB_Mobile/TestSuite/execution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JD4936\Documents\New_ZSB_Automation\ZSB_Mobile\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rk1277\Desktop\ZSB_Automation\ZSB_Mobile\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E74D33-9732-457A-8C6F-39FDAC363250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6366E489-A20D-40A5-A276-23EEBABD24BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="1356" windowWidth="17280" windowHeight="9420" xr2:uid="{C9148005-BF2D-4AA5-9190-7D9189103EBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9148005-BF2D-4AA5-9190-7D9189103EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,23 +53,23 @@
     <t>firmwarename</t>
   </si>
   <si>
-    <t>windows 11</t>
-  </si>
-  <si>
-    <t>tr5927</t>
-  </si>
-  <si>
-    <t>pixel</t>
-  </si>
-  <si>
-    <t>testing</t>
+    <t>Ranjita</t>
+  </si>
+  <si>
+    <t>Mobile Testing</t>
+  </si>
+  <si>
+    <t>Windows 11</t>
+  </si>
+  <si>
+    <t>Pixel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -108,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,11 +144,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -145,6 +171,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165BE73E-787E-474F-B6B0-0FE2506A9FD5}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,9 +530,10 @@
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -503,29 +543,31 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
